--- a/tx_fifo_timing_critical_mem3_shift_register_latch_va_tsmc2ff_meas.xlsx
+++ b/tx_fifo_timing_critical_mem3_shift_register_latch_va_tsmc2ff_meas.xlsx
@@ -272,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,26 +288,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -322,10 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,8 +699,8 @@
       <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2">
-        <v>-90.4328</v>
+      <c r="N2">
+        <v>90.0603</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -757,8 +743,8 @@
       <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="2">
-        <v>-197.047</v>
+      <c r="N3">
+        <v>96.9196</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -801,8 +787,8 @@
       <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="2">
-        <v>-90.521</v>
+      <c r="N4">
+        <v>90.11840000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -845,8 +831,8 @@
       <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="2">
-        <v>-87.63630000000001</v>
+      <c r="N5">
+        <v>87.5117</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -889,8 +875,8 @@
       <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="2">
-        <v>-216.417</v>
+      <c r="N6">
+        <v>115.636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -933,8 +919,8 @@
       <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="2">
-        <v>-203.109</v>
+      <c r="N7">
+        <v>102.991</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -977,8 +963,8 @@
       <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="2">
-        <v>-197.634</v>
+      <c r="N8">
+        <v>97.5218</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1021,8 +1007,8 @@
       <c r="M9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="2">
-        <v>-85.9691</v>
+      <c r="N9">
+        <v>85.98440000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1065,8 +1051,8 @@
       <c r="M10" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="2">
-        <v>-82.40129999999999</v>
+      <c r="N10">
+        <v>82.4324</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1109,8 +1095,8 @@
       <c r="M11" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="2">
-        <v>-81.5651</v>
+      <c r="N11">
+        <v>81.58759999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1153,8 +1139,8 @@
       <c r="M12" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="2">
-        <v>-197.047</v>
+      <c r="N12">
+        <v>96.9196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1197,8 +1183,8 @@
       <c r="M13" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="2">
-        <v>-90.521</v>
+      <c r="N13">
+        <v>90.11840000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1241,8 +1227,8 @@
       <c r="M14" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="2">
-        <v>-87.63630000000001</v>
+      <c r="N14">
+        <v>87.5117</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1285,8 +1271,8 @@
       <c r="M15" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="2">
-        <v>-201.576</v>
+      <c r="N15">
+        <v>101.451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1329,8 +1315,8 @@
       <c r="M16" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="2">
-        <v>-193.385</v>
+      <c r="N16">
+        <v>93.25880000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1373,8 +1359,8 @@
       <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="2">
-        <v>-91.0668</v>
+      <c r="N17">
+        <v>89.90949999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1417,8 +1403,8 @@
       <c r="M18" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="2">
-        <v>-193.151</v>
+      <c r="N18">
+        <v>93.02669999999999</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1461,8 +1447,8 @@
       <c r="M19" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="2">
-        <v>-87.43510000000001</v>
+      <c r="N19">
+        <v>87.408</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1505,8 +1491,8 @@
       <c r="M20" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="2">
-        <v>-85.4833</v>
+      <c r="N20">
+        <v>85.46210000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1">
@@ -1557,16 +1543,16 @@
       <c r="M22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="2">
-        <v>-216.417</v>
+      <c r="N22" s="1">
+        <v>81.58759999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1">
       <c r="M23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="2">
-        <v>-81.5651</v>
+      <c r="N23" s="1">
+        <v>115.636</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1">
@@ -1600,7 +1586,7 @@
         <v>81</v>
       </c>
       <c r="N28" s="1">
-        <v>-134.7386368421053</v>
+        <v>92.41205263157894</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1">
@@ -1608,7 +1594,7 @@
         <v>82</v>
       </c>
       <c r="N29" s="1">
-        <v>55.82476515309418</v>
+        <v>7.9557001622715</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1">
@@ -1616,7 +1602,7 @@
         <v>83</v>
       </c>
       <c r="N30" s="1">
-        <v>41.43189100132648</v>
+        <v>8.608942162543078</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1"/>
